--- a/migforecasting/underground/test-9.xlsx
+++ b/migforecasting/underground/test-9.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>test size 20%</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Без инфляции</t>
+  </si>
+  <si>
+    <t>test 20%</t>
+  </si>
+  <si>
+    <t>NN(64,64,64,64,1) (citiesdataset-NYDcor-4.csv) - next year</t>
   </si>
 </sst>
 </file>
@@ -115,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -125,6 +131,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2686,10 +2695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:O66"/>
+  <dimension ref="C4:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P70" sqref="P70"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2701,9 +2710,13 @@
     <col min="13" max="13" width="9.42578125" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2713,8 +2726,11 @@
       <c r="N4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Z4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2727,8 +2743,11 @@
         <v>8</v>
       </c>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -2750,8 +2769,14 @@
       <c r="O6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Z6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>1</v>
       </c>
@@ -2779,8 +2804,13 @@
       <c r="O7" s="3">
         <v>1334.8940497698211</v>
       </c>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f>C7+1</f>
         <v>2</v>
@@ -2811,8 +2841,13 @@
       <c r="O8" s="3">
         <v>1282.191244172586</v>
       </c>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y8" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+    </row>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" ref="C9:C56" si="0">C8+1</f>
         <v>3</v>
@@ -2843,8 +2878,13 @@
       <c r="O9" s="3">
         <v>1200.3342958830549</v>
       </c>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y9" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+    </row>
+    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2875,8 +2915,13 @@
       <c r="O10" s="3">
         <v>1235.2719875888549</v>
       </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y10" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2907,8 +2952,13 @@
       <c r="O11" s="3">
         <v>1291.6679596634749</v>
       </c>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y11" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2939,8 +2989,13 @@
       <c r="O12" s="3">
         <v>1229.323375911654</v>
       </c>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y12" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2971,8 +3026,13 @@
       <c r="O13" s="3">
         <v>1210.0406241321191</v>
       </c>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y13" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3003,8 +3063,13 @@
       <c r="O14" s="3">
         <v>1443.503056616805</v>
       </c>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y14" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3035,8 +3100,13 @@
       <c r="O15" s="3">
         <v>1317.2046421171531</v>
       </c>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y15" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3067,8 +3137,13 @@
       <c r="O16" s="3">
         <v>1206.556796266078</v>
       </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y16" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3099,8 +3174,13 @@
       <c r="O17" s="3">
         <v>1315.6254308942291</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y17" s="2">
+        <v>11</v>
+      </c>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3131,8 +3211,13 @@
       <c r="O18" s="3">
         <v>1167.0879668314669</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y18" s="2">
+        <v>12</v>
+      </c>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3163,8 +3248,13 @@
       <c r="O19" s="3">
         <v>1087.5068987945119</v>
       </c>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y19" s="2">
+        <v>13</v>
+      </c>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3195,8 +3285,13 @@
       <c r="O20" s="3">
         <v>1270.0379122173231</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y20" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3227,8 +3322,13 @@
       <c r="O21" s="3">
         <v>1157.0387480514489</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y21" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3259,8 +3359,13 @@
       <c r="O22" s="3">
         <v>1231.794193695084</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y22" s="2">
+        <v>16</v>
+      </c>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3291,8 +3396,13 @@
       <c r="O23" s="3">
         <v>1244.349280933018</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y23" s="2">
+        <v>17</v>
+      </c>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3323,8 +3433,13 @@
       <c r="O24" s="3">
         <v>1273.256030762177</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y24" s="2">
+        <v>18</v>
+      </c>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3355,8 +3470,13 @@
       <c r="O25" s="3">
         <v>1168.8714749466801</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y25" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3387,8 +3507,13 @@
       <c r="O26" s="3">
         <v>1118.2648981342541</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y26" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3419,8 +3544,11 @@
       <c r="O27" s="3">
         <v>1242.798067341434</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="4"/>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3451,8 +3579,19 @@
       <c r="O28" s="3">
         <v>1305.1638906756509</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="5" t="e">
+        <f>AVERAGE(Z7:Z26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA28" s="5" t="e">
+        <f>AVERAGE(AA7:AA26)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3483,8 +3622,19 @@
       <c r="O29" s="3">
         <v>1444.346096404938</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="Y29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="5" t="e">
+        <f>_xlfn.STDEV.S(Z7:Z26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA29" s="5" t="e">
+        <f>_xlfn.STDEV.S(AA7:AA26)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3516,7 +3666,7 @@
         <v>1401.057467528203</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3548,7 +3698,7 @@
         <v>1170.4907517454881</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>26</v>

--- a/migforecasting/underground/test-9.xlsx
+++ b/migforecasting/underground/test-9.xlsx
@@ -121,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -131,9 +131,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2698,7 +2695,7 @@
   <dimension ref="C4:AA66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,8 +2804,12 @@
       <c r="Y7" s="2">
         <v>1</v>
       </c>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
+      <c r="Z7" s="3">
+        <v>560.50998950074211</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>1275.600167235162</v>
+      </c>
     </row>
     <row r="8" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
@@ -2844,8 +2845,12 @@
       <c r="Y8" s="2">
         <v>2</v>
       </c>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
+      <c r="Z8" s="3">
+        <v>522.05038851027052</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>1245.00450099573</v>
+      </c>
     </row>
     <row r="9" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
@@ -2881,8 +2886,12 @@
       <c r="Y9" s="2">
         <v>3</v>
       </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
+      <c r="Z9" s="3">
+        <v>510.54175828544771</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>1224.0457560982541</v>
+      </c>
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
@@ -2918,8 +2927,12 @@
       <c r="Y10" s="2">
         <v>4</v>
       </c>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
+      <c r="Z10" s="3">
+        <v>594.83201247958345</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>1250.881080885373</v>
+      </c>
     </row>
     <row r="11" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
@@ -2955,8 +2968,12 @@
       <c r="Y11" s="2">
         <v>5</v>
       </c>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
+      <c r="Z11" s="3">
+        <v>533.71593172848497</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>1233.518200058767</v>
+      </c>
     </row>
     <row r="12" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
@@ -2992,8 +3009,12 @@
       <c r="Y12" s="2">
         <v>6</v>
       </c>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
+      <c r="Z12" s="3">
+        <v>490.57063055947663</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>1424.9429228418469</v>
+      </c>
     </row>
     <row r="13" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
@@ -3029,8 +3050,12 @@
       <c r="Y13" s="2">
         <v>7</v>
       </c>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
+      <c r="Z13" s="3">
+        <v>500.95261468811299</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>1317.0755869606271</v>
+      </c>
     </row>
     <row r="14" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
@@ -3066,8 +3091,12 @@
       <c r="Y14" s="2">
         <v>8</v>
       </c>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
+      <c r="Z14" s="3">
+        <v>526.10675567673206</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>1268.094857237646</v>
+      </c>
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
@@ -3103,8 +3132,12 @@
       <c r="Y15" s="2">
         <v>9</v>
       </c>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
+      <c r="Z15" s="3">
+        <v>493.94392799948582</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>1352.9965724416379</v>
+      </c>
     </row>
     <row r="16" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
@@ -3140,8 +3173,12 @@
       <c r="Y16" s="2">
         <v>10</v>
       </c>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
+      <c r="Z16" s="3">
+        <v>487.81024884027039</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>1309.1864162922529</v>
+      </c>
     </row>
     <row r="17" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
@@ -3177,8 +3214,12 @@
       <c r="Y17" s="2">
         <v>11</v>
       </c>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
+      <c r="Z17" s="3">
+        <v>501.7510623320257</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>1256.8473536241429</v>
+      </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
@@ -3214,8 +3255,12 @@
       <c r="Y18" s="2">
         <v>12</v>
       </c>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
+      <c r="Z18" s="3">
+        <v>601.22116389570601</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>1327.9264803926901</v>
+      </c>
     </row>
     <row r="19" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
@@ -3251,8 +3296,12 @@
       <c r="Y19" s="2">
         <v>13</v>
       </c>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
+      <c r="Z19" s="3">
+        <v>565.4341859150062</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>1135.0631737094229</v>
+      </c>
     </row>
     <row r="20" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
@@ -3288,8 +3337,12 @@
       <c r="Y20" s="2">
         <v>14</v>
       </c>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
+      <c r="Z20" s="3">
+        <v>608.49863593354053</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>1204.007012169282</v>
+      </c>
     </row>
     <row r="21" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
@@ -3325,8 +3378,12 @@
       <c r="Y21" s="2">
         <v>15</v>
       </c>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
+      <c r="Z21" s="3">
+        <v>521.39625719769197</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>1335.897831061056</v>
+      </c>
     </row>
     <row r="22" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
@@ -3362,8 +3419,12 @@
       <c r="Y22" s="2">
         <v>16</v>
       </c>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
+      <c r="Z22" s="3">
+        <v>524.26255120630321</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>1399.736875125539</v>
+      </c>
     </row>
     <row r="23" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
@@ -3399,8 +3460,12 @@
       <c r="Y23" s="2">
         <v>17</v>
       </c>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
+      <c r="Z23" s="3">
+        <v>544.10427197046988</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>1292.224007560751</v>
+      </c>
     </row>
     <row r="24" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
@@ -3436,8 +3501,12 @@
       <c r="Y24" s="2">
         <v>18</v>
       </c>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
+      <c r="Z24" s="3">
+        <v>518.69560857377508</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>1217.131283365979</v>
+      </c>
     </row>
     <row r="25" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
@@ -3473,8 +3542,12 @@
       <c r="Y25" s="2">
         <v>19</v>
       </c>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
+      <c r="Z25" s="3">
+        <v>496.69156082074068</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>1235.834797935581</v>
+      </c>
     </row>
     <row r="26" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
@@ -3510,8 +3583,12 @@
       <c r="Y26" s="2">
         <v>20</v>
       </c>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
+      <c r="Z26" s="3">
+        <v>471.4935830244371</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>1343.899372083657</v>
+      </c>
     </row>
     <row r="27" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
@@ -3545,8 +3622,8 @@
         <v>1242.798067341434</v>
       </c>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="4"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
     </row>
     <row r="28" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
@@ -3582,13 +3659,13 @@
       <c r="Y28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Z28" s="5" t="e">
+      <c r="Z28" s="3">
         <f>AVERAGE(Z7:Z26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA28" s="5" t="e">
+        <v>528.72915695691518</v>
+      </c>
+      <c r="AA28" s="3">
         <f>AVERAGE(AA7:AA26)</f>
-        <v>#DIV/0!</v>
+        <v>1282.4957124037701</v>
       </c>
     </row>
     <row r="29" spans="3:27" x14ac:dyDescent="0.25">
@@ -3625,13 +3702,13 @@
       <c r="Y29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z29" s="5" t="e">
+      <c r="Z29" s="3">
         <f>_xlfn.STDEV.S(Z7:Z26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA29" s="5" t="e">
+        <v>39.273108587288675</v>
+      </c>
+      <c r="AA29" s="3">
         <f>_xlfn.STDEV.S(AA7:AA26)</f>
-        <v>#DIV/0!</v>
+        <v>70.028430793437636</v>
       </c>
     </row>
     <row r="30" spans="3:27" x14ac:dyDescent="0.25">

--- a/migforecasting/underground/test-9.xlsx
+++ b/migforecasting/underground/test-9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ThisYear" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -303,7 +302,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -424,7 +422,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -567,7 +564,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2694,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
